--- a/Estructura de los seminarios.xlsx
+++ b/Estructura de los seminarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianita/Documents/INFOTEC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julih\Dropbox\seminario-de-proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED649C87-0600-6D4A-9081-2320C763B4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B601D6-F9A8-45EB-949D-7795244EB195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" xr2:uid="{9D4EB551-CDDC-1740-B9CF-CD9932CB9963}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9D4EB551-CDDC-1740-B9CF-CD9932CB9963}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Metodología</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Análisis exploratorio de los datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             </t>
   </si>
 </sst>
 </file>
@@ -537,17 +540,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03515E90-1CA8-4248-A6BD-AFE992E3D931}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="134" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="32" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="48.83203125" customWidth="1"/>
-    <col min="5" max="5" width="43.83203125" customWidth="1"/>
+    <col min="1" max="2" width="48.875" customWidth="1"/>
+    <col min="5" max="5" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -560,7 +563,7 @@
       </c>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -575,7 +578,7 @@
         <v>Identificación de la(s) fuente(s) de datos</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
@@ -590,7 +593,7 @@
         <v>Planteamiento del problema</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
@@ -605,7 +608,7 @@
         <v>Preguntas, hipótesis, objetivos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -620,7 +623,7 @@
         <v>Creación de la base de datos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
@@ -635,7 +638,7 @@
         <v>Límites y alcances</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -650,7 +653,7 @@
         <v xml:space="preserve">Justificación </v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -662,7 +665,7 @@
         <v>Limpieza (Preprocesing) de la BD</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
@@ -674,7 +677,7 @@
         <v>Análisis exploratorio de los datos</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>2.5</v>
       </c>
@@ -683,7 +686,7 @@
         <v>Ajuste de los parámetros del (los) modelo(s)</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="3">
         <v>3.1</v>
       </c>
@@ -692,7 +695,7 @@
         <v>Marco teórico</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="3">
         <v>3.2</v>
       </c>
@@ -701,7 +704,7 @@
         <v>Marco metodológico</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="3">
         <v>3.3</v>
       </c>
@@ -710,7 +713,10 @@
         <v>Análisis estadístico de los resultados</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
       <c r="D14" s="3">
         <v>3.4</v>
       </c>
@@ -719,7 +725,7 @@
         <v>Conclusiones</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="3">
         <v>3.5</v>
       </c>
